--- a/evaluation/results/hybrid/pca/LOF/split_5/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/pca/LOF/split_5/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.9074733096085409</v>
+        <v>0.2864768683274022</v>
       </c>
       <c r="C2">
-        <v>0.1</v>
+        <v>0.06526806526806526</v>
       </c>
       <c r="D2">
-        <v>0.1071428571428571</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.103448275862069</v>
+        <v>0.1225382932166302</v>
       </c>
       <c r="F2">
-        <v>0.1056338028169014</v>
+        <v>0.2587800369685767</v>
       </c>
       <c r="G2">
-        <v>0.1068493150684932</v>
+        <v>0.6448184233835252</v>
       </c>
       <c r="H2">
-        <v>0.5282905296950241</v>
+        <v>0.752808988764045</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="J2">
-        <v>27</v>
+        <v>401</v>
       </c>
       <c r="K2">
-        <v>507</v>
+        <v>133</v>
       </c>
       <c r="L2">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9530075187969925</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.949438202247191</v>
+        <v>0.249063670411985</v>
       </c>
       <c r="D2">
-        <v>0.9512195121951219</v>
+        <v>0.3988005997001499</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.1</v>
+        <v>0.06526806526806526</v>
       </c>
       <c r="C3">
-        <v>0.1071428571428571</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.103448275862069</v>
+        <v>0.1225382932166302</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.9074733096085409</v>
+        <v>0.2864768683274022</v>
       </c>
       <c r="C4">
-        <v>0.9074733096085409</v>
+        <v>0.2864768683274022</v>
       </c>
       <c r="D4">
-        <v>0.9074733096085409</v>
+        <v>0.2864768683274022</v>
       </c>
       <c r="E4">
-        <v>0.9074733096085409</v>
+        <v>0.2864768683274022</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.5265037593984963</v>
+        <v>0.5326340326340326</v>
       </c>
       <c r="C5">
-        <v>0.5282905296950241</v>
+        <v>0.6245318352059925</v>
       </c>
       <c r="D5">
-        <v>0.5273338940285954</v>
+        <v>0.2606694464583901</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9105089235544377</v>
+        <v>0.9534297256717185</v>
       </c>
       <c r="C6">
-        <v>0.9074733096085409</v>
+        <v>0.2864768683274022</v>
       </c>
       <c r="D6">
-        <v>0.9089817993529057</v>
+        <v>0.3850366413700101</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>507</v>
+        <v>133</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
